--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19260"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="18420" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -42,56 +42,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
-  <si>
-    <t>BST-1715</t>
-  </si>
-  <si>
-    <t>Modify the JOB Refresh_inst_for_Fund_Subfund_Share_input</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
   <si>
-    <t>BST-1710</t>
-  </si>
-  <si>
-    <t>[Mapping PTFINventory] - Ratings REGRESSION</t>
-  </si>
-  <si>
-    <t>BST-1711</t>
-  </si>
-  <si>
-    <t>Performance &gt; PTF message mapping duration analyse and potential improvments</t>
-  </si>
-  <si>
-    <t>BST-1712</t>
-  </si>
-  <si>
-    <t>Performance &gt;&gt; GetRefInstmds Call review &gt; Frequency</t>
-  </si>
-  <si>
     <t>DEVELOPMENT</t>
   </si>
   <si>
-    <t>BST-1713</t>
-  </si>
-  <si>
-    <t>[Mapping PtfInventory] - Cash_Category_1 et Cash_Categorie_2 - CTO-1962</t>
-  </si>
-  <si>
     <t>UAT</t>
   </si>
   <si>
-    <t>BST-1714</t>
-  </si>
-  <si>
-    <t>Rename the JOB testTopAlto to PTFINV_mapping_from_INST_receiving</t>
-  </si>
-  <si>
-    <t>IT ADM TEST</t>
-  </si>
-  <si>
     <t>JIRA</t>
   </si>
   <si>
@@ -152,15 +113,9 @@
     <t>STARTED</t>
   </si>
   <si>
-    <t xml:space="preserve">Development of 2 tickets (mention ticket IDs if possible) </t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Knowledge transfer and documentation updates </t>
-  </si>
-  <si>
     <t>EXPECTED DATES OF DEPLOYMENT</t>
   </si>
   <si>
@@ -173,63 +128,30 @@
     <t>PROD</t>
   </si>
   <si>
-    <t>TO BE CONFIRMED</t>
-  </si>
-  <si>
     <t>ANALYSE AND TESTING</t>
   </si>
   <si>
     <t>ACTION</t>
   </si>
   <si>
-    <t>CMP-100</t>
-  </si>
-  <si>
-    <t>BCT SCOPE</t>
-  </si>
-  <si>
     <t>WAITING</t>
   </si>
   <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>GROOMING</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>IT ADM</t>
   </si>
   <si>
-    <t>TESTE</t>
-  </si>
-  <si>
     <t>DEFINITION OF GOALS</t>
   </si>
   <si>
-    <t>RELEASE ON PRODUCTION ENVIRONMENT</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION</t>
-  </si>
-  <si>
-    <t>TRAINING</t>
-  </si>
-  <si>
     <t>DATES</t>
   </si>
   <si>
     <t>ORDER</t>
   </si>
   <si>
-    <t>Test on different environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
-  </si>
-  <si>
     <t>PROJECT</t>
   </si>
   <si>
@@ -327,6 +249,102 @@
   </si>
   <si>
     <t>CMP_SPRINT_30</t>
+  </si>
+  <si>
+    <t>Deployments will be delivered as soon as code is available. The current date of 5th of August is the deadline date for the full scope to be delivered on QUAL.</t>
+  </si>
+  <si>
+    <t>CMP-423</t>
+  </si>
+  <si>
+    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy - Costs</t>
+  </si>
+  <si>
+    <t>CMP-413</t>
+  </si>
+  <si>
+    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy</t>
+  </si>
+  <si>
+    <t>CMP-390</t>
+  </si>
+  <si>
+    <t>GUI - CmPCCOPE Active Flag and Table</t>
+  </si>
+  <si>
+    <t>CMP-393</t>
+  </si>
+  <si>
+    <t>GUI -Rules CmpCC Level missing</t>
+  </si>
+  <si>
+    <t>CMP-424</t>
+  </si>
+  <si>
+    <t>Compass - Creation of Documentation</t>
+  </si>
+  <si>
+    <t>Delivery of documentation. (CMP-424)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation of release on 24th August. Work on scope to be delivered. </t>
+  </si>
+  <si>
+    <t>Development of 3 tickets from Sprint 29 [ CMP-413. CMP-390 and CMP-424 ]</t>
+  </si>
+  <si>
+    <t>Focus on documentation [CMP-424] and training to be acquired on the frontend side.</t>
+  </si>
+  <si>
+    <t>Package to be frozen for the next release on Production.</t>
+  </si>
+  <si>
+    <t>Ticket from SP29 - To be delivered first week of the sprint</t>
+  </si>
+  <si>
+    <t>CMP-406</t>
+  </si>
+  <si>
+    <t>duplicates in 'RefPnlItem'</t>
+  </si>
+  <si>
+    <t>CMP-412</t>
+  </si>
+  <si>
+    <t>Calculation GUI  : differentiate button rev by client from calculate all / revenue by BL  only start rev by BL</t>
+  </si>
+  <si>
+    <t>CMP-377</t>
+  </si>
+  <si>
+    <t>404 Error into RefThirdParty</t>
+  </si>
+  <si>
+    <t>CMP-431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEYS -Newly created keys shall be defaulted to KEYACTVFLG_ = 1 </t>
+  </si>
+  <si>
+    <t>Test will be performed on PREPROD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to have na efficient sprint, we will test the above tickets. This will provide us a more accurate view on the current backlog and next topics to handle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this sprint scope, one good milestone we propose to achieve is the delivery of the documentation. </t>
+  </si>
+  <si>
+    <t>In terms of enhancements, [CMP-413 and CMP-423] will provide better results and quality to the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write the new US related to Top Transaction Banking | Select PNL Item to aplly for step 2 VER BY BL | </t>
+  </si>
+  <si>
+    <t>Creation of US for Uplouad of Rules and Dashboard Behaviour</t>
+  </si>
+  <si>
+    <t>Learning curve on Frontend side</t>
   </si>
 </sst>
 </file>
@@ -337,7 +355,7 @@
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +382,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,10 +439,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,13 +446,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -453,75 +468,84 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="34">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -546,28 +570,82 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -701,8 +779,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A34:F36" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A34:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A35:F40" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="A35:F40"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -716,69 +794,69 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A22:G28" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A22:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A24:G28"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="JIRA"/>
-    <tableColumn id="3" name="DESCRIPTION"/>
-    <tableColumn id="4" name="STATUS"/>
-    <tableColumn id="5" name="STORY POINTS"/>
-    <tableColumn id="6" name="COMMENTS"/>
-    <tableColumn id="7" name="ORDER"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="8"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="7"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="5"/>
+    <tableColumn id="5" name="STORY POINTS" dataDxfId="4"/>
+    <tableColumn id="6" name="COMMENTS" dataDxfId="1"/>
+    <tableColumn id="7" name="ORDER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A15:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A16:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="20"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="19"/>
-    <tableColumn id="3" name="PROD"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="13"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="12"/>
+    <tableColumn id="3" name="PROD" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="32">
   <autoFilter ref="A7:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="17"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="16"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="15"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="14"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="31"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="30"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="29"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="13"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="12"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="25"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="5"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="E4:E7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -788,20 +866,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="1"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="3"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1070,21 +1148,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1092,414 +1170,469 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>23</v>
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
         <v>45488</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6">
         <v>45506</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>64</v>
+      <c r="A4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>45509</v>
+      </c>
+      <c r="B17" s="21">
+        <v>45512</v>
+      </c>
+      <c r="C17" s="20">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
+        <v>5</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23">
+        <v>20</v>
+      </c>
+      <c r="G26" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="23">
+        <v>20</v>
+      </c>
+      <c r="G27" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
+      <c r="G28" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:6" s="21" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1"/>
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="10"/>
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A44" s="26"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
+      <c r="A48" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
+      <c r="A50" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
+      <c r="A51" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1537,13 +1670,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A23:A28 A35:A36</xm:sqref>
+          <xm:sqref>A25:A28 A36:A40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D23:D28 D35:D36</xm:sqref>
+          <xm:sqref>D25:D28 D36:D40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1568,180 +1701,180 @@
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>93</v>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
+      <c r="A4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>18</v>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
-        <v>73</v>
+      <c r="C18" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
-        <v>74</v>
+      <c r="C19" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
-        <v>75</v>
+      <c r="C20" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
-        <v>76</v>
+      <c r="C21" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
-        <v>77</v>
+      <c r="C22" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
-        <v>78</v>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
-        <v>79</v>
+      <c r="C24" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,35 +468,38 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,48 +507,72 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -579,73 +606,49 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -794,69 +797,69 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A24:G28"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="8"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="7"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="6"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="5"/>
-    <tableColumn id="5" name="STORY POINTS" dataDxfId="4"/>
-    <tableColumn id="6" name="COMMENTS" dataDxfId="1"/>
-    <tableColumn id="7" name="ORDER" dataDxfId="0"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="29"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="28"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="27"/>
+    <tableColumn id="5" name="STORY POINTS" dataDxfId="26"/>
+    <tableColumn id="6" name="COMMENTS" dataDxfId="25"/>
+    <tableColumn id="7" name="ORDER" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A16:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="13"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="12"/>
-    <tableColumn id="3" name="PROD" dataDxfId="11"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="21"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="20"/>
+    <tableColumn id="3" name="PROD" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A7:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="31"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="30"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="29"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="28"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="17"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="16"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="15"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="25"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="24"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="21"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E4:E7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -866,20 +869,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="17"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="14"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1206,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1243,12 +1246,12 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1260,10 +1263,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1277,13 +1280,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>45509</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>45512</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>45528</v>
       </c>
     </row>
@@ -1298,127 +1301,127 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>5</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>20</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>20</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>3</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1428,23 +1431,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1573,44 +1576,44 @@
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="25" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -492,14 +492,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +728,6 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
-      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -775,7 +774,6 @@
       <sheetData sheetId="41"/>
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
-      <sheetData sheetId="44" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1154,7 +1152,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,10 +1204,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1230,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>48</v>
@@ -1263,10 +1261,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1314,10 +1312,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1444,10 +1442,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1576,7 +1574,7 @@
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="1"/>
@@ -1587,10 +1585,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">

--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOSTA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="18420" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="CRITICITY">[1]!JIRA_TABLE[#Data]</definedName>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="NUMBERS">[1]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="Table">[1]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="TEST">[1]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="TESTE">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -149,9 +154,6 @@
     <t>DATES</t>
   </si>
   <si>
-    <t>ORDER</t>
-  </si>
-  <si>
     <t>PROJECT</t>
   </si>
   <si>
@@ -248,87 +250,6 @@
     <t>Insert new fields as needed. Remember that needs to be included and updated on the "DELIVER" sheet.</t>
   </si>
   <si>
-    <t>CMP_SPRINT_30</t>
-  </si>
-  <si>
-    <t>Deployments will be delivered as soon as code is available. The current date of 5th of August is the deadline date for the full scope to be delivered on QUAL.</t>
-  </si>
-  <si>
-    <t>CMP-423</t>
-  </si>
-  <si>
-    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy - Costs</t>
-  </si>
-  <si>
-    <t>CMP-413</t>
-  </si>
-  <si>
-    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy</t>
-  </si>
-  <si>
-    <t>CMP-390</t>
-  </si>
-  <si>
-    <t>GUI - CmPCCOPE Active Flag and Table</t>
-  </si>
-  <si>
-    <t>CMP-393</t>
-  </si>
-  <si>
-    <t>GUI -Rules CmpCC Level missing</t>
-  </si>
-  <si>
-    <t>CMP-424</t>
-  </si>
-  <si>
-    <t>Compass - Creation of Documentation</t>
-  </si>
-  <si>
-    <t>Delivery of documentation. (CMP-424)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparation of release on 24th August. Work on scope to be delivered. </t>
-  </si>
-  <si>
-    <t>Development of 3 tickets from Sprint 29 [ CMP-413. CMP-390 and CMP-424 ]</t>
-  </si>
-  <si>
-    <t>Focus on documentation [CMP-424] and training to be acquired on the frontend side.</t>
-  </si>
-  <si>
-    <t>Package to be frozen for the next release on Production.</t>
-  </si>
-  <si>
-    <t>Ticket from SP29 - To be delivered first week of the sprint</t>
-  </si>
-  <si>
-    <t>CMP-406</t>
-  </si>
-  <si>
-    <t>duplicates in 'RefPnlItem'</t>
-  </si>
-  <si>
-    <t>CMP-412</t>
-  </si>
-  <si>
-    <t>Calculation GUI  : differentiate button rev by client from calculate all / revenue by BL  only start rev by BL</t>
-  </si>
-  <si>
-    <t>CMP-377</t>
-  </si>
-  <si>
-    <t>404 Error into RefThirdParty</t>
-  </si>
-  <si>
-    <t>CMP-431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEYS -Newly created keys shall be defaulted to KEYACTVFLG_ = 1 </t>
-  </si>
-  <si>
-    <t>Test will be performed on PREPROD</t>
-  </si>
-  <si>
     <t xml:space="preserve">In order to have na efficient sprint, we will test the above tickets. This will provide us a more accurate view on the current backlog and next topics to handle. </t>
   </si>
   <si>
@@ -338,13 +259,130 @@
     <t>In terms of enhancements, [CMP-413 and CMP-423] will provide better results and quality to the application.</t>
   </si>
   <si>
-    <t xml:space="preserve">Write the new US related to Top Transaction Banking | Select PNL Item to aplly for step 2 VER BY BL | </t>
-  </si>
-  <si>
-    <t>Creation of US for Uplouad of Rules and Dashboard Behaviour</t>
-  </si>
-  <si>
-    <t>Learning curve on Frontend side</t>
+    <t>BST_SPRINT_35</t>
+  </si>
+  <si>
+    <t>Release on Production on 26th July.</t>
+  </si>
+  <si>
+    <t>Intermediary releases during the sprint, in order to achieve a smooth transition and tests between environments.</t>
+  </si>
+  <si>
+    <t>Deployments will be delivered as soon as code is available.</t>
+  </si>
+  <si>
+    <t>The current date of 5th of August is the deadline date for the full scope to be delivered on QUAL.</t>
+  </si>
+  <si>
+    <t>BST-1729</t>
+  </si>
+  <si>
+    <t>BST-1730</t>
+  </si>
+  <si>
+    <t>BST-1727</t>
+  </si>
+  <si>
+    <t>BST-1728</t>
+  </si>
+  <si>
+    <t>BST-1719</t>
+  </si>
+  <si>
+    <t>BST-1720</t>
+  </si>
+  <si>
+    <t>BST-1717</t>
+  </si>
+  <si>
+    <t>BST-1732</t>
+  </si>
+  <si>
+    <t>BST-1733</t>
+  </si>
+  <si>
+    <t>BST-1734</t>
+  </si>
+  <si>
+    <t>BST-1687</t>
+  </si>
+  <si>
+    <t>BST-1664</t>
+  </si>
+  <si>
+    <t>BST-892</t>
+  </si>
+  <si>
+    <t>[COLLAT] - Mapping CPTCDTMP KO</t>
+  </si>
+  <si>
+    <t>[Mapping Portfolio] - LevelPrestation - Update BST_PORTFOLIO_ISLIQUIDATED  V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BST] Mapping status monitoring </t>
+  </si>
+  <si>
+    <t>Node crashing in the morning + logs error while restarting</t>
+  </si>
+  <si>
+    <t>Adding new data in BST_REF_VAL from XML message id_bb_company linked with CTO-1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Mapping] Fx rate null for a currency not to mapped in ssettoalto_currency_quotations linked with CTO-2060 </t>
+  </si>
+  <si>
+    <t>[Mapping Asset] - CFI_CODE - CTO-2110</t>
+  </si>
+  <si>
+    <t>[API ISSUER] - asAtDate to removed</t>
+  </si>
+  <si>
+    <t>Overriding values: message error</t>
+  </si>
+  <si>
+    <t>Overriding values: Third party name</t>
+  </si>
+  <si>
+    <t>Overriding values: import NEW VALUE format ERROR</t>
+  </si>
+  <si>
+    <t>[COLLAT] - INTEGRATION FILE - PROD</t>
+  </si>
+  <si>
+    <t>[API Codification-Groups] - Update Palmyra</t>
+  </si>
+  <si>
+    <t>IT ADM TEST</t>
+  </si>
+  <si>
+    <t>CRITICITY</t>
+  </si>
+  <si>
+    <t>BLOCKER</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>Assigned to Zied. Waiting for feedback from BST-1711 (SP34). Will be deployment on PROD on 26.07</t>
+  </si>
+  <si>
+    <t>SP34 full tested and released on PROD on 26th of July.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlog refinement with BA team. Currently 26% of tickets not estimated or missing informations. </t>
+  </si>
+  <si>
+    <t>BST-1352</t>
+  </si>
+  <si>
+    <t>[API Diffusion-lists] - KO PROD/PREPROD</t>
+  </si>
+  <si>
+    <t>Test needs to be performed, in order to see if the problem still persists</t>
   </si>
 </sst>
 </file>
@@ -505,7 +543,436 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -628,15 +1095,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -690,6 +1148,7 @@
       <sheetName val="SPRINT 32"/>
       <sheetName val="SPRINT 33"/>
       <sheetName val="SPRINT 34"/>
+      <sheetName val="SPRINT 35"/>
       <sheetName val="DATA"/>
       <sheetName val="BACKLOG"/>
       <sheetName val="DOCUMENTATION"/>
@@ -774,14 +1233,15 @@
       <sheetData sheetId="41"/>
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A35:F40" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A35:F40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A44:F45" totalsRowShown="0" headerRowDxfId="51">
+  <autoFilter ref="A44:F45"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -795,69 +1255,69 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A24:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G37" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A24:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="29"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="28"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="27"/>
-    <tableColumn id="5" name="STORY POINTS" dataDxfId="26"/>
-    <tableColumn id="6" name="COMMENTS" dataDxfId="25"/>
-    <tableColumn id="7" name="ORDER" dataDxfId="24"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="48"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="8"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="7"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="6"/>
+    <tableColumn id="5" name="STORY POINTS" dataDxfId="47"/>
+    <tableColumn id="6" name="COMMENTS" dataDxfId="46"/>
+    <tableColumn id="7" name="CRITICITY" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A16:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="21"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="20"/>
-    <tableColumn id="3" name="PROD" dataDxfId="19"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="42"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="41"/>
+    <tableColumn id="3" name="PROD" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A7:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="17"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="16"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="15"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="14"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="38"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="37"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="36"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="32"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="E4:E7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -867,20 +1327,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1149,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,32 +1634,32 @@
     <row r="1" spans="1:4" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
-        <v>45506</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1225,13 +1685,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -1245,12 +1705,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,13 +1739,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="B17" s="19">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="C17" s="18">
-        <v>45528</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,13 +1760,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -1337,18 +1797,18 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>1</v>
@@ -1356,282 +1816,376 @@
       <c r="E25" s="21">
         <v>5</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
+      <c r="G25" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="21">
-        <v>20</v>
-      </c>
-      <c r="G26" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E27" s="21">
-        <v>20</v>
-      </c>
-      <c r="G27" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E28" s="21">
+        <v>5</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
         <v>3</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="G30" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>5</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>5</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>5</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <v>5</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>31</v>
       </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="27"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
   </mergeCells>
@@ -1671,13 +2225,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A25:A28 A36:A40</xm:sqref>
+          <xm:sqref>A25:A37 A45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D28 D36:D40</xm:sqref>
+          <xm:sqref>D25:D37 D45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1707,23 +2261,23 @@
         <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1734,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -1751,26 +2305,26 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>5</v>
@@ -1781,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>0</v>
@@ -1789,10 +2343,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1803,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
@@ -1814,7 +2368,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
@@ -1822,10 +2376,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
@@ -1833,49 +2387,49 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Sprint Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Sprint_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -382,7 +382,22 @@
     <t>[API Diffusion-lists] - KO PROD/PREPROD</t>
   </si>
   <si>
-    <t>Test needs to be performed, in order to see if the problem still persists</t>
+    <t>GREETINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to thanks to everyone involved on the project, withouth you the above could not be possible. </t>
+  </si>
+  <si>
+    <t>Test needs to be performed in order to see if the problem still persists</t>
+  </si>
+  <si>
+    <t>METRICS</t>
+  </si>
+  <si>
+    <t>IMAGE1</t>
+  </si>
+  <si>
+    <t>IMAGE2</t>
   </si>
 </sst>
 </file>
@@ -467,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,440 +554,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1095,6 +684,18 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1143,6 +744,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
+      <sheetName val="KPI"/>
       <sheetName val="SPRINT 30"/>
       <sheetName val="SPRINT 31"/>
       <sheetName val="SPRINT 32"/>
@@ -1151,9 +753,8 @@
       <sheetName val="SPRINT 35"/>
       <sheetName val="DATA"/>
       <sheetName val="BACKLOG"/>
+      <sheetName val="BACKLOG_PERFORMANCE"/>
       <sheetName val="DOCUMENTATION"/>
-      <sheetName val="BACKLOG_PERFORMANCE"/>
-      <sheetName val="KPI"/>
       <sheetName val="AGILE"/>
       <sheetName val="INCIDENT TRACKER"/>
       <sheetName val="HIGH LEVEL VIEW"/>
@@ -1240,7 +841,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A44:F45" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A44:F45" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A44:F45"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
@@ -1255,69 +856,69 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G37" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G37" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A24:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="48"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="8"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="7"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="6"/>
-    <tableColumn id="5" name="STORY POINTS" dataDxfId="47"/>
-    <tableColumn id="6" name="COMMENTS" dataDxfId="46"/>
-    <tableColumn id="7" name="CRITICITY" dataDxfId="45"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="29"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="28"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="27"/>
+    <tableColumn id="5" name="STORY POINTS" dataDxfId="26"/>
+    <tableColumn id="6" name="COMMENTS" dataDxfId="25"/>
+    <tableColumn id="7" name="CRITICITY" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A16:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="42"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="41"/>
-    <tableColumn id="3" name="PROD" dataDxfId="40"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="21"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="20"/>
+    <tableColumn id="3" name="PROD" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A7:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="38"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="37"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="36"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="35"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="17"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="16"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="15"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="32"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="31"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="28"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E7" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E4:E7"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -1327,20 +928,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="24"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="21"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,55 +1740,94 @@
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+    <row r="50" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="27"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="27"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="B58" s="27"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="25"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2202,7 +1842,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>

--- a/Excel_Files/planning.xlsx
+++ b/Excel_Files/planning.xlsx
@@ -548,14 +548,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1322,10 +1322,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1373,10 +1373,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1683,10 +1683,10 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="27"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1745,10 +1745,10 @@
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -1780,10 +1780,10 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
@@ -1804,7 +1804,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="27" t="s">
         <v>112</v>
       </c>
     </row>
